--- a/2020_agesex.xlsx
+++ b/2020_agesex.xlsx
@@ -5,254 +5,255 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Desktop\Code_Louisville\DA_2_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Desktop\Code_Louisville\DA_2_Project\US-county-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8B89E-3F2A-4727-B53A-444867747454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661BA7D-6798-4C53-BAE3-A805E846A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{601049C5-388A-4C7A-A55E-EEDA92BC393A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{601049C5-388A-4C7A-A55E-EEDA92BC393A}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
     <sheet name="api_calls" sheetId="32" r:id="rId2"/>
-    <sheet name="total_all" sheetId="4" r:id="rId3"/>
-    <sheet name="male_all" sheetId="2" r:id="rId4"/>
-    <sheet name="female_all" sheetId="3" r:id="rId5"/>
-    <sheet name="total_whi" sheetId="5" r:id="rId6"/>
-    <sheet name="total_male_whi" sheetId="6" r:id="rId7"/>
-    <sheet name="total_female_whi" sheetId="7" r:id="rId8"/>
-    <sheet name="total_baa" sheetId="8" r:id="rId9"/>
-    <sheet name="total_male_baa" sheetId="9" r:id="rId10"/>
-    <sheet name="total_female_baa" sheetId="10" r:id="rId11"/>
-    <sheet name="total_aian" sheetId="11" r:id="rId12"/>
-    <sheet name="total_male_aian" sheetId="12" r:id="rId13"/>
-    <sheet name="total_female_aian" sheetId="13" r:id="rId14"/>
-    <sheet name="total_aa" sheetId="14" r:id="rId15"/>
-    <sheet name="total_male_aa" sheetId="15" r:id="rId16"/>
-    <sheet name="total_female_aa" sheetId="16" r:id="rId17"/>
-    <sheet name="total_nhop" sheetId="17" r:id="rId18"/>
-    <sheet name="total_male_nhop" sheetId="18" r:id="rId19"/>
-    <sheet name="total_female_nhop" sheetId="19" r:id="rId20"/>
-    <sheet name="total_sor" sheetId="20" r:id="rId21"/>
-    <sheet name="total_male_sor" sheetId="21" r:id="rId22"/>
-    <sheet name="total_female_sor" sheetId="22" r:id="rId23"/>
-    <sheet name="total_tom" sheetId="23" r:id="rId24"/>
-    <sheet name="total_male_tom" sheetId="24" r:id="rId25"/>
-    <sheet name="total_female_tom" sheetId="25" r:id="rId26"/>
-    <sheet name="total_hol" sheetId="26" r:id="rId27"/>
-    <sheet name="total_male_hol" sheetId="27" r:id="rId28"/>
-    <sheet name="total_female_hol" sheetId="28" r:id="rId29"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId3"/>
+    <sheet name="total_all" sheetId="4" r:id="rId4"/>
+    <sheet name="male_all" sheetId="2" r:id="rId5"/>
+    <sheet name="female_all" sheetId="3" r:id="rId6"/>
+    <sheet name="total_whi" sheetId="5" r:id="rId7"/>
+    <sheet name="total_male_whi" sheetId="6" r:id="rId8"/>
+    <sheet name="total_female_whi" sheetId="7" r:id="rId9"/>
+    <sheet name="total_baa" sheetId="8" r:id="rId10"/>
+    <sheet name="total_male_baa" sheetId="9" r:id="rId11"/>
+    <sheet name="total_female_baa" sheetId="10" r:id="rId12"/>
+    <sheet name="total_aian" sheetId="11" r:id="rId13"/>
+    <sheet name="total_male_aian" sheetId="12" r:id="rId14"/>
+    <sheet name="total_female_aian" sheetId="13" r:id="rId15"/>
+    <sheet name="total_aa" sheetId="14" r:id="rId16"/>
+    <sheet name="total_male_aa" sheetId="15" r:id="rId17"/>
+    <sheet name="total_female_aa" sheetId="16" r:id="rId18"/>
+    <sheet name="total_nhop" sheetId="17" r:id="rId19"/>
+    <sheet name="total_male_nhop" sheetId="18" r:id="rId20"/>
+    <sheet name="total_female_nhop" sheetId="19" r:id="rId21"/>
+    <sheet name="total_sor" sheetId="20" r:id="rId22"/>
+    <sheet name="total_male_sor" sheetId="21" r:id="rId23"/>
+    <sheet name="total_female_sor" sheetId="22" r:id="rId24"/>
+    <sheet name="total_tom" sheetId="23" r:id="rId25"/>
+    <sheet name="total_male_tom" sheetId="24" r:id="rId26"/>
+    <sheet name="total_female_tom" sheetId="25" r:id="rId27"/>
+    <sheet name="total_hol" sheetId="26" r:id="rId28"/>
+    <sheet name="total_male_hol" sheetId="27" r:id="rId29"/>
+    <sheet name="total_female_hol" sheetId="28" r:id="rId30"/>
   </sheets>
   <definedNames>
-    <definedName name="PCT12_001N" localSheetId="3">male_all!#REF!</definedName>
-    <definedName name="PCT12_002N" localSheetId="3">male_all!$A$1</definedName>
-    <definedName name="PCT12_003N" localSheetId="3">male_all!$A$2</definedName>
-    <definedName name="PCT12_004N" localSheetId="3">male_all!$A$3</definedName>
-    <definedName name="PCT12_005N" localSheetId="3">male_all!$A$4</definedName>
-    <definedName name="PCT12_006N" localSheetId="3">male_all!$A$5</definedName>
-    <definedName name="PCT12_007N" localSheetId="3">male_all!$A$6</definedName>
-    <definedName name="PCT12_008N" localSheetId="3">male_all!$A$7</definedName>
-    <definedName name="PCT12_009N" localSheetId="3">male_all!$A$8</definedName>
-    <definedName name="PCT12_010N" localSheetId="3">male_all!$A$9</definedName>
-    <definedName name="PCT12_011N" localSheetId="3">male_all!$A$10</definedName>
-    <definedName name="PCT12_012N" localSheetId="3">male_all!$A$11</definedName>
-    <definedName name="PCT12_013N" localSheetId="3">male_all!$A$12</definedName>
-    <definedName name="PCT12_014N" localSheetId="3">male_all!$A$13</definedName>
-    <definedName name="PCT12_015N" localSheetId="3">male_all!$A$14</definedName>
-    <definedName name="PCT12_016N" localSheetId="3">male_all!$A$15</definedName>
-    <definedName name="PCT12_017N" localSheetId="3">male_all!$A$16</definedName>
-    <definedName name="PCT12_018N" localSheetId="3">male_all!$A$17</definedName>
-    <definedName name="PCT12_019N" localSheetId="3">male_all!$A$18</definedName>
-    <definedName name="PCT12_020N" localSheetId="3">male_all!$A$19</definedName>
-    <definedName name="PCT12_021N" localSheetId="3">male_all!$A$20</definedName>
-    <definedName name="PCT12_022N" localSheetId="3">male_all!$A$21</definedName>
-    <definedName name="PCT12_023N" localSheetId="3">male_all!$A$22</definedName>
-    <definedName name="PCT12_024N" localSheetId="3">male_all!$A$23</definedName>
-    <definedName name="PCT12_025N" localSheetId="3">male_all!$A$24</definedName>
-    <definedName name="PCT12_026N" localSheetId="3">male_all!$A$25</definedName>
-    <definedName name="PCT12_027N" localSheetId="3">male_all!$A$26</definedName>
-    <definedName name="PCT12_028N" localSheetId="3">male_all!$A$27</definedName>
-    <definedName name="PCT12_029N" localSheetId="3">male_all!$A$28</definedName>
-    <definedName name="PCT12_030N" localSheetId="3">male_all!$A$29</definedName>
-    <definedName name="PCT12_031N" localSheetId="3">male_all!$A$30</definedName>
-    <definedName name="PCT12_032N" localSheetId="3">male_all!$A$31</definedName>
-    <definedName name="PCT12_033N" localSheetId="3">male_all!$A$32</definedName>
-    <definedName name="PCT12_034N" localSheetId="3">male_all!$A$33</definedName>
-    <definedName name="PCT12_035N" localSheetId="3">male_all!$A$34</definedName>
-    <definedName name="PCT12_036N" localSheetId="3">male_all!$A$35</definedName>
-    <definedName name="PCT12_037N" localSheetId="3">male_all!$A$36</definedName>
-    <definedName name="PCT12_038N" localSheetId="3">male_all!$A$37</definedName>
-    <definedName name="PCT12_039N" localSheetId="3">male_all!$A$38</definedName>
-    <definedName name="PCT12_040N" localSheetId="3">male_all!$A$39</definedName>
-    <definedName name="PCT12_041N" localSheetId="3">male_all!$A$40</definedName>
-    <definedName name="PCT12_042N" localSheetId="3">male_all!$A$41</definedName>
-    <definedName name="PCT12_043N" localSheetId="3">male_all!$A$42</definedName>
-    <definedName name="PCT12_044N" localSheetId="3">male_all!$A$43</definedName>
-    <definedName name="PCT12_045N" localSheetId="3">male_all!$A$44</definedName>
-    <definedName name="PCT12_046N" localSheetId="3">male_all!$A$45</definedName>
-    <definedName name="PCT12_047N" localSheetId="3">male_all!$A$46</definedName>
-    <definedName name="PCT12_048N" localSheetId="3">male_all!$A$47</definedName>
-    <definedName name="PCT12_049N" localSheetId="3">male_all!$A$48</definedName>
-    <definedName name="PCT12_050N" localSheetId="3">male_all!$A$49</definedName>
-    <definedName name="PCT12_051N" localSheetId="3">male_all!$A$50</definedName>
-    <definedName name="PCT12_052N" localSheetId="3">male_all!$A$51</definedName>
-    <definedName name="PCT12_053N" localSheetId="3">male_all!$A$52</definedName>
-    <definedName name="PCT12_054N" localSheetId="3">male_all!$A$53</definedName>
-    <definedName name="PCT12_055N" localSheetId="3">male_all!$A$54</definedName>
-    <definedName name="PCT12_056N" localSheetId="3">male_all!$A$55</definedName>
-    <definedName name="PCT12_057N" localSheetId="3">male_all!$A$56</definedName>
-    <definedName name="PCT12_058N" localSheetId="3">male_all!$A$57</definedName>
-    <definedName name="PCT12_059N" localSheetId="3">male_all!$A$58</definedName>
-    <definedName name="PCT12_060N" localSheetId="3">male_all!$A$59</definedName>
-    <definedName name="PCT12_061N" localSheetId="3">male_all!$A$60</definedName>
-    <definedName name="PCT12_062N" localSheetId="3">male_all!$A$61</definedName>
-    <definedName name="PCT12_063N" localSheetId="3">male_all!$A$62</definedName>
-    <definedName name="PCT12_064N" localSheetId="3">male_all!$A$63</definedName>
-    <definedName name="PCT12_065N" localSheetId="3">male_all!$A$64</definedName>
-    <definedName name="PCT12_066N" localSheetId="3">male_all!$A$65</definedName>
-    <definedName name="PCT12_067N" localSheetId="3">male_all!$A$66</definedName>
-    <definedName name="PCT12_068N" localSheetId="3">male_all!$A$67</definedName>
-    <definedName name="PCT12_069N" localSheetId="3">male_all!$A$68</definedName>
-    <definedName name="PCT12_070N" localSheetId="3">male_all!$A$69</definedName>
-    <definedName name="PCT12_071N" localSheetId="3">male_all!$A$70</definedName>
-    <definedName name="PCT12_072N" localSheetId="3">male_all!$A$71</definedName>
-    <definedName name="PCT12_073N" localSheetId="3">male_all!$A$72</definedName>
-    <definedName name="PCT12_074N" localSheetId="3">male_all!$A$73</definedName>
-    <definedName name="PCT12_075N" localSheetId="3">male_all!$A$74</definedName>
-    <definedName name="PCT12_076N" localSheetId="3">male_all!$A$75</definedName>
-    <definedName name="PCT12_077N" localSheetId="3">male_all!$A$76</definedName>
-    <definedName name="PCT12_078N" localSheetId="3">male_all!$A$77</definedName>
-    <definedName name="PCT12_079N" localSheetId="3">male_all!$A$78</definedName>
-    <definedName name="PCT12_080N" localSheetId="3">male_all!$A$79</definedName>
-    <definedName name="PCT12_081N" localSheetId="3">male_all!$A$80</definedName>
-    <definedName name="PCT12_082N" localSheetId="3">male_all!$A$81</definedName>
-    <definedName name="PCT12_083N" localSheetId="3">male_all!$A$82</definedName>
-    <definedName name="PCT12_084N" localSheetId="3">male_all!$A$83</definedName>
-    <definedName name="PCT12_085N" localSheetId="3">male_all!$A$84</definedName>
-    <definedName name="PCT12_086N" localSheetId="3">male_all!$A$85</definedName>
-    <definedName name="PCT12_087N" localSheetId="3">male_all!$A$86</definedName>
-    <definedName name="PCT12_088N" localSheetId="3">male_all!$A$87</definedName>
-    <definedName name="PCT12_089N" localSheetId="3">male_all!$A$88</definedName>
-    <definedName name="PCT12_090N" localSheetId="3">male_all!$A$89</definedName>
-    <definedName name="PCT12_091N" localSheetId="3">male_all!$A$90</definedName>
-    <definedName name="PCT12_092N" localSheetId="3">male_all!$A$91</definedName>
-    <definedName name="PCT12_093N" localSheetId="3">male_all!$A$92</definedName>
-    <definedName name="PCT12_094N" localSheetId="3">male_all!$A$93</definedName>
-    <definedName name="PCT12_095N" localSheetId="3">male_all!$A$94</definedName>
-    <definedName name="PCT12_096N" localSheetId="3">male_all!$A$95</definedName>
-    <definedName name="PCT12_097N" localSheetId="3">male_all!$A$96</definedName>
-    <definedName name="PCT12_098N" localSheetId="3">male_all!$A$97</definedName>
-    <definedName name="PCT12_099N" localSheetId="3">male_all!$A$98</definedName>
-    <definedName name="PCT12_100N" localSheetId="3">male_all!$A$99</definedName>
-    <definedName name="PCT12_101N" localSheetId="3">male_all!$A$100</definedName>
-    <definedName name="PCT12_102N" localSheetId="3">male_all!$A$101</definedName>
-    <definedName name="PCT12_103N" localSheetId="3">male_all!$A$102</definedName>
-    <definedName name="PCT12_104N" localSheetId="3">male_all!$A$103</definedName>
-    <definedName name="PCT12_105N" localSheetId="3">male_all!$A$104</definedName>
-    <definedName name="PCT12D_106N" localSheetId="16">total_female_aa!$A$1</definedName>
-    <definedName name="PCT12D_107N" localSheetId="16">total_female_aa!$A$2</definedName>
-    <definedName name="PCT12D_108N" localSheetId="16">total_female_aa!$A$3</definedName>
-    <definedName name="PCT12D_109N" localSheetId="16">total_female_aa!$A$4</definedName>
-    <definedName name="PCT12D_110N" localSheetId="16">total_female_aa!$A$5</definedName>
-    <definedName name="PCT12D_111N" localSheetId="16">total_female_aa!$A$6</definedName>
-    <definedName name="PCT12D_112N" localSheetId="16">total_female_aa!$A$7</definedName>
-    <definedName name="PCT12D_113N" localSheetId="16">total_female_aa!$A$8</definedName>
-    <definedName name="PCT12D_114N" localSheetId="16">total_female_aa!$A$9</definedName>
-    <definedName name="PCT12D_115N" localSheetId="16">total_female_aa!$A$10</definedName>
-    <definedName name="PCT12D_116N" localSheetId="16">total_female_aa!$A$11</definedName>
-    <definedName name="PCT12D_117N" localSheetId="16">total_female_aa!$A$12</definedName>
-    <definedName name="PCT12D_118N" localSheetId="16">total_female_aa!$A$13</definedName>
-    <definedName name="PCT12D_119N" localSheetId="16">total_female_aa!$A$14</definedName>
-    <definedName name="PCT12D_120N" localSheetId="16">total_female_aa!$A$15</definedName>
-    <definedName name="PCT12D_121N" localSheetId="16">total_female_aa!$A$16</definedName>
-    <definedName name="PCT12D_122N" localSheetId="16">total_female_aa!$A$17</definedName>
-    <definedName name="PCT12D_123N" localSheetId="16">total_female_aa!$A$18</definedName>
-    <definedName name="PCT12D_124N" localSheetId="16">total_female_aa!$A$19</definedName>
-    <definedName name="PCT12D_125N" localSheetId="16">total_female_aa!$A$20</definedName>
-    <definedName name="PCT12D_126N" localSheetId="16">total_female_aa!$A$21</definedName>
-    <definedName name="PCT12D_127N" localSheetId="16">total_female_aa!$A$22</definedName>
-    <definedName name="PCT12D_128N" localSheetId="16">total_female_aa!$A$23</definedName>
-    <definedName name="PCT12D_129N" localSheetId="16">total_female_aa!$A$24</definedName>
-    <definedName name="PCT12D_130N" localSheetId="16">total_female_aa!$A$25</definedName>
-    <definedName name="PCT12D_131N" localSheetId="16">total_female_aa!$A$26</definedName>
-    <definedName name="PCT12D_132N" localSheetId="16">total_female_aa!$A$27</definedName>
-    <definedName name="PCT12D_133N" localSheetId="16">total_female_aa!$A$28</definedName>
-    <definedName name="PCT12D_134N" localSheetId="16">total_female_aa!$A$29</definedName>
-    <definedName name="PCT12D_135N" localSheetId="16">total_female_aa!$A$30</definedName>
-    <definedName name="PCT12D_136N" localSheetId="16">total_female_aa!$A$31</definedName>
-    <definedName name="PCT12D_137N" localSheetId="16">total_female_aa!$A$32</definedName>
-    <definedName name="PCT12D_138N" localSheetId="16">total_female_aa!$A$33</definedName>
-    <definedName name="PCT12D_139N" localSheetId="16">total_female_aa!$A$34</definedName>
-    <definedName name="PCT12D_140N" localSheetId="16">total_female_aa!$A$35</definedName>
-    <definedName name="PCT12D_141N" localSheetId="16">total_female_aa!$A$36</definedName>
-    <definedName name="PCT12D_142N" localSheetId="16">total_female_aa!$A$37</definedName>
-    <definedName name="PCT12D_143N" localSheetId="16">total_female_aa!$A$38</definedName>
-    <definedName name="PCT12D_144N" localSheetId="16">total_female_aa!$A$39</definedName>
-    <definedName name="PCT12D_145N" localSheetId="16">total_female_aa!$A$40</definedName>
-    <definedName name="PCT12D_146N" localSheetId="16">total_female_aa!$A$41</definedName>
-    <definedName name="PCT12D_147N" localSheetId="16">total_female_aa!$A$42</definedName>
-    <definedName name="PCT12D_148N" localSheetId="16">total_female_aa!$A$43</definedName>
-    <definedName name="PCT12D_149N" localSheetId="16">total_female_aa!$A$44</definedName>
-    <definedName name="PCT12D_150N" localSheetId="16">total_female_aa!$A$45</definedName>
-    <definedName name="PCT12D_151N" localSheetId="16">total_female_aa!$A$46</definedName>
-    <definedName name="PCT12D_152N" localSheetId="16">total_female_aa!$A$47</definedName>
-    <definedName name="PCT12D_153N" localSheetId="16">total_female_aa!$A$48</definedName>
-    <definedName name="PCT12D_154N" localSheetId="16">total_female_aa!$A$49</definedName>
-    <definedName name="PCT12D_155N" localSheetId="16">total_female_aa!$A$50</definedName>
-    <definedName name="PCT12D_156N" localSheetId="16">total_female_aa!$A$51</definedName>
-    <definedName name="PCT12D_157N" localSheetId="16">total_female_aa!$A$52</definedName>
-    <definedName name="PCT12D_158N" localSheetId="16">total_female_aa!$A$53</definedName>
-    <definedName name="PCT12D_159N" localSheetId="16">total_female_aa!$A$54</definedName>
-    <definedName name="PCT12D_160N" localSheetId="16">total_female_aa!$A$55</definedName>
-    <definedName name="PCT12D_161N" localSheetId="16">total_female_aa!$A$56</definedName>
-    <definedName name="PCT12D_162N" localSheetId="16">total_female_aa!$A$57</definedName>
-    <definedName name="PCT12D_163N" localSheetId="16">total_female_aa!$A$58</definedName>
-    <definedName name="PCT12D_164N" localSheetId="16">total_female_aa!$A$59</definedName>
-    <definedName name="PCT12D_165N" localSheetId="16">total_female_aa!$A$60</definedName>
-    <definedName name="PCT12D_166N" localSheetId="16">total_female_aa!$A$61</definedName>
-    <definedName name="PCT12D_167N" localSheetId="16">total_female_aa!$A$62</definedName>
-    <definedName name="PCT12D_168N" localSheetId="16">total_female_aa!$A$63</definedName>
-    <definedName name="PCT12D_169N" localSheetId="16">total_female_aa!$A$64</definedName>
-    <definedName name="PCT12D_170N" localSheetId="16">total_female_aa!$A$65</definedName>
-    <definedName name="PCT12D_171N" localSheetId="16">total_female_aa!$A$66</definedName>
-    <definedName name="PCT12D_172N" localSheetId="16">total_female_aa!$A$67</definedName>
-    <definedName name="PCT12D_173N" localSheetId="16">total_female_aa!$A$68</definedName>
-    <definedName name="PCT12D_174N" localSheetId="16">total_female_aa!$A$69</definedName>
-    <definedName name="PCT12D_175N" localSheetId="16">total_female_aa!$A$70</definedName>
-    <definedName name="PCT12D_176N" localSheetId="16">total_female_aa!$A$71</definedName>
-    <definedName name="PCT12D_177N" localSheetId="16">total_female_aa!$A$72</definedName>
-    <definedName name="PCT12D_178N" localSheetId="16">total_female_aa!$A$73</definedName>
-    <definedName name="PCT12D_179N" localSheetId="16">total_female_aa!$A$74</definedName>
-    <definedName name="PCT12D_180N" localSheetId="16">total_female_aa!$A$75</definedName>
-    <definedName name="PCT12D_181N" localSheetId="16">total_female_aa!$A$76</definedName>
-    <definedName name="PCT12D_182N" localSheetId="16">total_female_aa!$A$77</definedName>
-    <definedName name="PCT12D_183N" localSheetId="16">total_female_aa!$A$78</definedName>
-    <definedName name="PCT12D_184N" localSheetId="16">total_female_aa!$A$79</definedName>
-    <definedName name="PCT12D_185N" localSheetId="16">total_female_aa!$A$80</definedName>
-    <definedName name="PCT12D_186N" localSheetId="16">total_female_aa!$A$81</definedName>
-    <definedName name="PCT12D_187N" localSheetId="16">total_female_aa!$A$82</definedName>
-    <definedName name="PCT12D_188N" localSheetId="16">total_female_aa!$A$83</definedName>
-    <definedName name="PCT12D_189N" localSheetId="16">total_female_aa!$A$84</definedName>
-    <definedName name="PCT12D_190N" localSheetId="16">total_female_aa!$A$85</definedName>
-    <definedName name="PCT12D_191N" localSheetId="16">total_female_aa!$A$86</definedName>
-    <definedName name="PCT12D_192N" localSheetId="16">total_female_aa!$A$87</definedName>
-    <definedName name="PCT12D_193N" localSheetId="16">total_female_aa!$A$88</definedName>
-    <definedName name="PCT12D_194N" localSheetId="16">total_female_aa!$A$89</definedName>
-    <definedName name="PCT12D_195N" localSheetId="16">total_female_aa!$A$90</definedName>
-    <definedName name="PCT12D_196N" localSheetId="16">total_female_aa!$A$91</definedName>
-    <definedName name="PCT12D_197N" localSheetId="16">total_female_aa!$A$92</definedName>
-    <definedName name="PCT12D_198N" localSheetId="16">total_female_aa!$A$93</definedName>
-    <definedName name="PCT12D_199N" localSheetId="16">total_female_aa!$A$94</definedName>
-    <definedName name="PCT12D_200N" localSheetId="16">total_female_aa!$A$95</definedName>
-    <definedName name="PCT12D_201N" localSheetId="16">total_female_aa!$A$96</definedName>
-    <definedName name="PCT12D_202N" localSheetId="16">total_female_aa!$A$97</definedName>
-    <definedName name="PCT12D_203N" localSheetId="16">total_female_aa!$A$98</definedName>
-    <definedName name="PCT12D_204N" localSheetId="16">total_female_aa!$A$99</definedName>
-    <definedName name="PCT12D_205N" localSheetId="16">total_female_aa!$A$100</definedName>
-    <definedName name="PCT12D_206N" localSheetId="16">total_female_aa!$A$101</definedName>
-    <definedName name="PCT12D_207N" localSheetId="16">total_female_aa!$A$102</definedName>
-    <definedName name="PCT12D_208N" localSheetId="16">total_female_aa!$A$103</definedName>
-    <definedName name="PCT12D_209N" localSheetId="16">total_female_aa!$A$104</definedName>
+    <definedName name="PCT12_001N" localSheetId="4">male_all!#REF!</definedName>
+    <definedName name="PCT12_002N" localSheetId="4">male_all!$A$1</definedName>
+    <definedName name="PCT12_003N" localSheetId="4">male_all!$A$2</definedName>
+    <definedName name="PCT12_004N" localSheetId="4">male_all!$A$3</definedName>
+    <definedName name="PCT12_005N" localSheetId="4">male_all!$A$4</definedName>
+    <definedName name="PCT12_006N" localSheetId="4">male_all!$A$5</definedName>
+    <definedName name="PCT12_007N" localSheetId="4">male_all!$A$6</definedName>
+    <definedName name="PCT12_008N" localSheetId="4">male_all!$A$7</definedName>
+    <definedName name="PCT12_009N" localSheetId="4">male_all!$A$8</definedName>
+    <definedName name="PCT12_010N" localSheetId="4">male_all!$A$9</definedName>
+    <definedName name="PCT12_011N" localSheetId="4">male_all!$A$10</definedName>
+    <definedName name="PCT12_012N" localSheetId="4">male_all!$A$11</definedName>
+    <definedName name="PCT12_013N" localSheetId="4">male_all!$A$12</definedName>
+    <definedName name="PCT12_014N" localSheetId="4">male_all!$A$13</definedName>
+    <definedName name="PCT12_015N" localSheetId="4">male_all!$A$14</definedName>
+    <definedName name="PCT12_016N" localSheetId="4">male_all!$A$15</definedName>
+    <definedName name="PCT12_017N" localSheetId="4">male_all!$A$16</definedName>
+    <definedName name="PCT12_018N" localSheetId="4">male_all!$A$17</definedName>
+    <definedName name="PCT12_019N" localSheetId="4">male_all!$A$18</definedName>
+    <definedName name="PCT12_020N" localSheetId="4">male_all!$A$19</definedName>
+    <definedName name="PCT12_021N" localSheetId="4">male_all!$A$20</definedName>
+    <definedName name="PCT12_022N" localSheetId="4">male_all!$A$21</definedName>
+    <definedName name="PCT12_023N" localSheetId="4">male_all!$A$22</definedName>
+    <definedName name="PCT12_024N" localSheetId="4">male_all!$A$23</definedName>
+    <definedName name="PCT12_025N" localSheetId="4">male_all!$A$24</definedName>
+    <definedName name="PCT12_026N" localSheetId="4">male_all!$A$25</definedName>
+    <definedName name="PCT12_027N" localSheetId="4">male_all!$A$26</definedName>
+    <definedName name="PCT12_028N" localSheetId="4">male_all!$A$27</definedName>
+    <definedName name="PCT12_029N" localSheetId="4">male_all!$A$28</definedName>
+    <definedName name="PCT12_030N" localSheetId="4">male_all!$A$29</definedName>
+    <definedName name="PCT12_031N" localSheetId="4">male_all!$A$30</definedName>
+    <definedName name="PCT12_032N" localSheetId="4">male_all!$A$31</definedName>
+    <definedName name="PCT12_033N" localSheetId="4">male_all!$A$32</definedName>
+    <definedName name="PCT12_034N" localSheetId="4">male_all!$A$33</definedName>
+    <definedName name="PCT12_035N" localSheetId="4">male_all!$A$34</definedName>
+    <definedName name="PCT12_036N" localSheetId="4">male_all!$A$35</definedName>
+    <definedName name="PCT12_037N" localSheetId="4">male_all!$A$36</definedName>
+    <definedName name="PCT12_038N" localSheetId="4">male_all!$A$37</definedName>
+    <definedName name="PCT12_039N" localSheetId="4">male_all!$A$38</definedName>
+    <definedName name="PCT12_040N" localSheetId="4">male_all!$A$39</definedName>
+    <definedName name="PCT12_041N" localSheetId="4">male_all!$A$40</definedName>
+    <definedName name="PCT12_042N" localSheetId="4">male_all!$A$41</definedName>
+    <definedName name="PCT12_043N" localSheetId="4">male_all!$A$42</definedName>
+    <definedName name="PCT12_044N" localSheetId="4">male_all!$A$43</definedName>
+    <definedName name="PCT12_045N" localSheetId="4">male_all!$A$44</definedName>
+    <definedName name="PCT12_046N" localSheetId="4">male_all!$A$45</definedName>
+    <definedName name="PCT12_047N" localSheetId="4">male_all!$A$46</definedName>
+    <definedName name="PCT12_048N" localSheetId="4">male_all!$A$47</definedName>
+    <definedName name="PCT12_049N" localSheetId="4">male_all!$A$48</definedName>
+    <definedName name="PCT12_050N" localSheetId="4">male_all!$A$49</definedName>
+    <definedName name="PCT12_051N" localSheetId="4">male_all!$A$50</definedName>
+    <definedName name="PCT12_052N" localSheetId="4">male_all!$A$51</definedName>
+    <definedName name="PCT12_053N" localSheetId="4">male_all!$A$52</definedName>
+    <definedName name="PCT12_054N" localSheetId="4">male_all!$A$53</definedName>
+    <definedName name="PCT12_055N" localSheetId="4">male_all!$A$54</definedName>
+    <definedName name="PCT12_056N" localSheetId="4">male_all!$A$55</definedName>
+    <definedName name="PCT12_057N" localSheetId="4">male_all!$A$56</definedName>
+    <definedName name="PCT12_058N" localSheetId="4">male_all!$A$57</definedName>
+    <definedName name="PCT12_059N" localSheetId="4">male_all!$A$58</definedName>
+    <definedName name="PCT12_060N" localSheetId="4">male_all!$A$59</definedName>
+    <definedName name="PCT12_061N" localSheetId="4">male_all!$A$60</definedName>
+    <definedName name="PCT12_062N" localSheetId="4">male_all!$A$61</definedName>
+    <definedName name="PCT12_063N" localSheetId="4">male_all!$A$62</definedName>
+    <definedName name="PCT12_064N" localSheetId="4">male_all!$A$63</definedName>
+    <definedName name="PCT12_065N" localSheetId="4">male_all!$A$64</definedName>
+    <definedName name="PCT12_066N" localSheetId="4">male_all!$A$65</definedName>
+    <definedName name="PCT12_067N" localSheetId="4">male_all!$A$66</definedName>
+    <definedName name="PCT12_068N" localSheetId="4">male_all!$A$67</definedName>
+    <definedName name="PCT12_069N" localSheetId="4">male_all!$A$68</definedName>
+    <definedName name="PCT12_070N" localSheetId="4">male_all!$A$69</definedName>
+    <definedName name="PCT12_071N" localSheetId="4">male_all!$A$70</definedName>
+    <definedName name="PCT12_072N" localSheetId="4">male_all!$A$71</definedName>
+    <definedName name="PCT12_073N" localSheetId="4">male_all!$A$72</definedName>
+    <definedName name="PCT12_074N" localSheetId="4">male_all!$A$73</definedName>
+    <definedName name="PCT12_075N" localSheetId="4">male_all!$A$74</definedName>
+    <definedName name="PCT12_076N" localSheetId="4">male_all!$A$75</definedName>
+    <definedName name="PCT12_077N" localSheetId="4">male_all!$A$76</definedName>
+    <definedName name="PCT12_078N" localSheetId="4">male_all!$A$77</definedName>
+    <definedName name="PCT12_079N" localSheetId="4">male_all!$A$78</definedName>
+    <definedName name="PCT12_080N" localSheetId="4">male_all!$A$79</definedName>
+    <definedName name="PCT12_081N" localSheetId="4">male_all!$A$80</definedName>
+    <definedName name="PCT12_082N" localSheetId="4">male_all!$A$81</definedName>
+    <definedName name="PCT12_083N" localSheetId="4">male_all!$A$82</definedName>
+    <definedName name="PCT12_084N" localSheetId="4">male_all!$A$83</definedName>
+    <definedName name="PCT12_085N" localSheetId="4">male_all!$A$84</definedName>
+    <definedName name="PCT12_086N" localSheetId="4">male_all!$A$85</definedName>
+    <definedName name="PCT12_087N" localSheetId="4">male_all!$A$86</definedName>
+    <definedName name="PCT12_088N" localSheetId="4">male_all!$A$87</definedName>
+    <definedName name="PCT12_089N" localSheetId="4">male_all!$A$88</definedName>
+    <definedName name="PCT12_090N" localSheetId="4">male_all!$A$89</definedName>
+    <definedName name="PCT12_091N" localSheetId="4">male_all!$A$90</definedName>
+    <definedName name="PCT12_092N" localSheetId="4">male_all!$A$91</definedName>
+    <definedName name="PCT12_093N" localSheetId="4">male_all!$A$92</definedName>
+    <definedName name="PCT12_094N" localSheetId="4">male_all!$A$93</definedName>
+    <definedName name="PCT12_095N" localSheetId="4">male_all!$A$94</definedName>
+    <definedName name="PCT12_096N" localSheetId="4">male_all!$A$95</definedName>
+    <definedName name="PCT12_097N" localSheetId="4">male_all!$A$96</definedName>
+    <definedName name="PCT12_098N" localSheetId="4">male_all!$A$97</definedName>
+    <definedName name="PCT12_099N" localSheetId="4">male_all!$A$98</definedName>
+    <definedName name="PCT12_100N" localSheetId="4">male_all!$A$99</definedName>
+    <definedName name="PCT12_101N" localSheetId="4">male_all!$A$100</definedName>
+    <definedName name="PCT12_102N" localSheetId="4">male_all!$A$101</definedName>
+    <definedName name="PCT12_103N" localSheetId="4">male_all!$A$102</definedName>
+    <definedName name="PCT12_104N" localSheetId="4">male_all!$A$103</definedName>
+    <definedName name="PCT12_105N" localSheetId="4">male_all!$A$104</definedName>
+    <definedName name="PCT12D_106N" localSheetId="17">total_female_aa!$A$1</definedName>
+    <definedName name="PCT12D_107N" localSheetId="17">total_female_aa!$A$2</definedName>
+    <definedName name="PCT12D_108N" localSheetId="17">total_female_aa!$A$3</definedName>
+    <definedName name="PCT12D_109N" localSheetId="17">total_female_aa!$A$4</definedName>
+    <definedName name="PCT12D_110N" localSheetId="17">total_female_aa!$A$5</definedName>
+    <definedName name="PCT12D_111N" localSheetId="17">total_female_aa!$A$6</definedName>
+    <definedName name="PCT12D_112N" localSheetId="17">total_female_aa!$A$7</definedName>
+    <definedName name="PCT12D_113N" localSheetId="17">total_female_aa!$A$8</definedName>
+    <definedName name="PCT12D_114N" localSheetId="17">total_female_aa!$A$9</definedName>
+    <definedName name="PCT12D_115N" localSheetId="17">total_female_aa!$A$10</definedName>
+    <definedName name="PCT12D_116N" localSheetId="17">total_female_aa!$A$11</definedName>
+    <definedName name="PCT12D_117N" localSheetId="17">total_female_aa!$A$12</definedName>
+    <definedName name="PCT12D_118N" localSheetId="17">total_female_aa!$A$13</definedName>
+    <definedName name="PCT12D_119N" localSheetId="17">total_female_aa!$A$14</definedName>
+    <definedName name="PCT12D_120N" localSheetId="17">total_female_aa!$A$15</definedName>
+    <definedName name="PCT12D_121N" localSheetId="17">total_female_aa!$A$16</definedName>
+    <definedName name="PCT12D_122N" localSheetId="17">total_female_aa!$A$17</definedName>
+    <definedName name="PCT12D_123N" localSheetId="17">total_female_aa!$A$18</definedName>
+    <definedName name="PCT12D_124N" localSheetId="17">total_female_aa!$A$19</definedName>
+    <definedName name="PCT12D_125N" localSheetId="17">total_female_aa!$A$20</definedName>
+    <definedName name="PCT12D_126N" localSheetId="17">total_female_aa!$A$21</definedName>
+    <definedName name="PCT12D_127N" localSheetId="17">total_female_aa!$A$22</definedName>
+    <definedName name="PCT12D_128N" localSheetId="17">total_female_aa!$A$23</definedName>
+    <definedName name="PCT12D_129N" localSheetId="17">total_female_aa!$A$24</definedName>
+    <definedName name="PCT12D_130N" localSheetId="17">total_female_aa!$A$25</definedName>
+    <definedName name="PCT12D_131N" localSheetId="17">total_female_aa!$A$26</definedName>
+    <definedName name="PCT12D_132N" localSheetId="17">total_female_aa!$A$27</definedName>
+    <definedName name="PCT12D_133N" localSheetId="17">total_female_aa!$A$28</definedName>
+    <definedName name="PCT12D_134N" localSheetId="17">total_female_aa!$A$29</definedName>
+    <definedName name="PCT12D_135N" localSheetId="17">total_female_aa!$A$30</definedName>
+    <definedName name="PCT12D_136N" localSheetId="17">total_female_aa!$A$31</definedName>
+    <definedName name="PCT12D_137N" localSheetId="17">total_female_aa!$A$32</definedName>
+    <definedName name="PCT12D_138N" localSheetId="17">total_female_aa!$A$33</definedName>
+    <definedName name="PCT12D_139N" localSheetId="17">total_female_aa!$A$34</definedName>
+    <definedName name="PCT12D_140N" localSheetId="17">total_female_aa!$A$35</definedName>
+    <definedName name="PCT12D_141N" localSheetId="17">total_female_aa!$A$36</definedName>
+    <definedName name="PCT12D_142N" localSheetId="17">total_female_aa!$A$37</definedName>
+    <definedName name="PCT12D_143N" localSheetId="17">total_female_aa!$A$38</definedName>
+    <definedName name="PCT12D_144N" localSheetId="17">total_female_aa!$A$39</definedName>
+    <definedName name="PCT12D_145N" localSheetId="17">total_female_aa!$A$40</definedName>
+    <definedName name="PCT12D_146N" localSheetId="17">total_female_aa!$A$41</definedName>
+    <definedName name="PCT12D_147N" localSheetId="17">total_female_aa!$A$42</definedName>
+    <definedName name="PCT12D_148N" localSheetId="17">total_female_aa!$A$43</definedName>
+    <definedName name="PCT12D_149N" localSheetId="17">total_female_aa!$A$44</definedName>
+    <definedName name="PCT12D_150N" localSheetId="17">total_female_aa!$A$45</definedName>
+    <definedName name="PCT12D_151N" localSheetId="17">total_female_aa!$A$46</definedName>
+    <definedName name="PCT12D_152N" localSheetId="17">total_female_aa!$A$47</definedName>
+    <definedName name="PCT12D_153N" localSheetId="17">total_female_aa!$A$48</definedName>
+    <definedName name="PCT12D_154N" localSheetId="17">total_female_aa!$A$49</definedName>
+    <definedName name="PCT12D_155N" localSheetId="17">total_female_aa!$A$50</definedName>
+    <definedName name="PCT12D_156N" localSheetId="17">total_female_aa!$A$51</definedName>
+    <definedName name="PCT12D_157N" localSheetId="17">total_female_aa!$A$52</definedName>
+    <definedName name="PCT12D_158N" localSheetId="17">total_female_aa!$A$53</definedName>
+    <definedName name="PCT12D_159N" localSheetId="17">total_female_aa!$A$54</definedName>
+    <definedName name="PCT12D_160N" localSheetId="17">total_female_aa!$A$55</definedName>
+    <definedName name="PCT12D_161N" localSheetId="17">total_female_aa!$A$56</definedName>
+    <definedName name="PCT12D_162N" localSheetId="17">total_female_aa!$A$57</definedName>
+    <definedName name="PCT12D_163N" localSheetId="17">total_female_aa!$A$58</definedName>
+    <definedName name="PCT12D_164N" localSheetId="17">total_female_aa!$A$59</definedName>
+    <definedName name="PCT12D_165N" localSheetId="17">total_female_aa!$A$60</definedName>
+    <definedName name="PCT12D_166N" localSheetId="17">total_female_aa!$A$61</definedName>
+    <definedName name="PCT12D_167N" localSheetId="17">total_female_aa!$A$62</definedName>
+    <definedName name="PCT12D_168N" localSheetId="17">total_female_aa!$A$63</definedName>
+    <definedName name="PCT12D_169N" localSheetId="17">total_female_aa!$A$64</definedName>
+    <definedName name="PCT12D_170N" localSheetId="17">total_female_aa!$A$65</definedName>
+    <definedName name="PCT12D_171N" localSheetId="17">total_female_aa!$A$66</definedName>
+    <definedName name="PCT12D_172N" localSheetId="17">total_female_aa!$A$67</definedName>
+    <definedName name="PCT12D_173N" localSheetId="17">total_female_aa!$A$68</definedName>
+    <definedName name="PCT12D_174N" localSheetId="17">total_female_aa!$A$69</definedName>
+    <definedName name="PCT12D_175N" localSheetId="17">total_female_aa!$A$70</definedName>
+    <definedName name="PCT12D_176N" localSheetId="17">total_female_aa!$A$71</definedName>
+    <definedName name="PCT12D_177N" localSheetId="17">total_female_aa!$A$72</definedName>
+    <definedName name="PCT12D_178N" localSheetId="17">total_female_aa!$A$73</definedName>
+    <definedName name="PCT12D_179N" localSheetId="17">total_female_aa!$A$74</definedName>
+    <definedName name="PCT12D_180N" localSheetId="17">total_female_aa!$A$75</definedName>
+    <definedName name="PCT12D_181N" localSheetId="17">total_female_aa!$A$76</definedName>
+    <definedName name="PCT12D_182N" localSheetId="17">total_female_aa!$A$77</definedName>
+    <definedName name="PCT12D_183N" localSheetId="17">total_female_aa!$A$78</definedName>
+    <definedName name="PCT12D_184N" localSheetId="17">total_female_aa!$A$79</definedName>
+    <definedName name="PCT12D_185N" localSheetId="17">total_female_aa!$A$80</definedName>
+    <definedName name="PCT12D_186N" localSheetId="17">total_female_aa!$A$81</definedName>
+    <definedName name="PCT12D_187N" localSheetId="17">total_female_aa!$A$82</definedName>
+    <definedName name="PCT12D_188N" localSheetId="17">total_female_aa!$A$83</definedName>
+    <definedName name="PCT12D_189N" localSheetId="17">total_female_aa!$A$84</definedName>
+    <definedName name="PCT12D_190N" localSheetId="17">total_female_aa!$A$85</definedName>
+    <definedName name="PCT12D_191N" localSheetId="17">total_female_aa!$A$86</definedName>
+    <definedName name="PCT12D_192N" localSheetId="17">total_female_aa!$A$87</definedName>
+    <definedName name="PCT12D_193N" localSheetId="17">total_female_aa!$A$88</definedName>
+    <definedName name="PCT12D_194N" localSheetId="17">total_female_aa!$A$89</definedName>
+    <definedName name="PCT12D_195N" localSheetId="17">total_female_aa!$A$90</definedName>
+    <definedName name="PCT12D_196N" localSheetId="17">total_female_aa!$A$91</definedName>
+    <definedName name="PCT12D_197N" localSheetId="17">total_female_aa!$A$92</definedName>
+    <definedName name="PCT12D_198N" localSheetId="17">total_female_aa!$A$93</definedName>
+    <definedName name="PCT12D_199N" localSheetId="17">total_female_aa!$A$94</definedName>
+    <definedName name="PCT12D_200N" localSheetId="17">total_female_aa!$A$95</definedName>
+    <definedName name="PCT12D_201N" localSheetId="17">total_female_aa!$A$96</definedName>
+    <definedName name="PCT12D_202N" localSheetId="17">total_female_aa!$A$97</definedName>
+    <definedName name="PCT12D_203N" localSheetId="17">total_female_aa!$A$98</definedName>
+    <definedName name="PCT12D_204N" localSheetId="17">total_female_aa!$A$99</definedName>
+    <definedName name="PCT12D_205N" localSheetId="17">total_female_aa!$A$100</definedName>
+    <definedName name="PCT12D_206N" localSheetId="17">total_female_aa!$A$101</definedName>
+    <definedName name="PCT12D_207N" localSheetId="17">total_female_aa!$A$102</definedName>
+    <definedName name="PCT12D_208N" localSheetId="17">total_female_aa!$A$103</definedName>
+    <definedName name="PCT12D_209N" localSheetId="17">total_female_aa!$A$104</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -274,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13496" uniqueCount="4162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13588" uniqueCount="4181">
   <si>
     <t>PCT12_001N</t>
   </si>
@@ -12760,6 +12761,63 @@
   </si>
   <si>
     <t>PCT12H_204N,PCT12H_205N,PCT12H_206N,PCT12H_207N,PCT12H_208N,PCT12H_209N</t>
+  </si>
+  <si>
+    <t>DF_total_male_ho</t>
+  </si>
+  <si>
+    <t>DF_total_female_hol</t>
+  </si>
+  <si>
+    <t>DF_total_female_tom</t>
+  </si>
+  <si>
+    <t>DF_total_male_tom</t>
+  </si>
+  <si>
+    <t>DF_total_female_sor</t>
+  </si>
+  <si>
+    <t>DF_total_female_nhop</t>
+  </si>
+  <si>
+    <t>DF_total_male_nhop</t>
+  </si>
+  <si>
+    <t>DF_total_female_aa</t>
+  </si>
+  <si>
+    <t>DF_total_male_aa</t>
+  </si>
+  <si>
+    <t>DF_total_female_aian</t>
+  </si>
+  <si>
+    <t>DF_total_male_aian</t>
+  </si>
+  <si>
+    <t>DF_total_female_baa</t>
+  </si>
+  <si>
+    <t>DF_total_male_baa</t>
+  </si>
+  <si>
+    <t>DF_total_female_whi</t>
+  </si>
+  <si>
+    <t>DF_total_male_whi</t>
+  </si>
+  <si>
+    <t>DF_female_all</t>
+  </si>
+  <si>
+    <t>DF_male_all</t>
+  </si>
+  <si>
+    <t>API Call DF:</t>
+  </si>
+  <si>
+    <t>Final DF:</t>
   </si>
 </sst>
 </file>
@@ -12836,7 +12894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -12905,12 +12963,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12931,15 +12998,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12949,28 +13007,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13296,114 +13372,114 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>4035</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>4036</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>3996</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="16"/>
+      <c r="D9" s="12" t="s">
         <v>3997</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="15" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="12" t="s">
         <v>4025</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -13413,576 +13489,598 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="13" t="s">
         <v>4026</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>3998</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="D11" s="12">
+      <c r="B11" s="17"/>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>3999</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="D12" s="12">
+      <c r="B12" s="11"/>
+      <c r="D12" s="16">
         <v>104</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>4000</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="D13" s="12">
+      <c r="B13" s="11"/>
+      <c r="D13" s="16">
         <v>104</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>4001</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="D14" s="12">
+      <c r="B14" s="11"/>
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="10" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="17" t="s">
         <v>4027</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>4002</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="D15" s="12">
+      <c r="B15" s="11"/>
+      <c r="D15" s="16">
         <v>104</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="10" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="17" t="s">
         <v>4027</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>4003</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="D16" s="12">
+      <c r="B16" s="11"/>
+      <c r="D16" s="16">
         <v>104</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="10" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="17" t="s">
         <v>4027</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>4004</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="D17" s="12">
+      <c r="B17" s="11"/>
+      <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="I17" s="10" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="I17" s="17" t="s">
         <v>4028</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>4005</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="D18" s="12">
+      <c r="B18" s="11"/>
+      <c r="D18" s="16">
         <v>104</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="10" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="17" t="s">
         <v>4028</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>4006</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="D19" s="12">
+      <c r="B19" s="11"/>
+      <c r="D19" s="16">
         <v>104</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="10" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="17" t="s">
         <v>4028</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>4007</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="D20" s="12">
+      <c r="B20" s="11"/>
+      <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="10" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>4008</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="D21" s="12">
+      <c r="B21" s="11"/>
+      <c r="D21" s="16">
         <v>104</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="10" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>4009</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="D22" s="12">
+      <c r="B22" s="11"/>
+      <c r="D22" s="16">
         <v>104</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="10" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="I22" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>4010</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="D23" s="12">
+      <c r="B23" s="11"/>
+      <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="I23" s="10" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="17" t="s">
         <v>4030</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>4011</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="D24" s="12">
+      <c r="B24" s="11"/>
+      <c r="D24" s="16">
         <v>104</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="I24" s="10" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="I24" s="17" t="s">
         <v>4030</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>4012</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="D25" s="12">
+      <c r="B25" s="11"/>
+      <c r="D25" s="16">
         <v>104</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="I25" s="10" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="17" t="s">
         <v>4030</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>4013</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="D26" s="12">
+      <c r="B26" s="11"/>
+      <c r="D26" s="16">
         <v>1</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="I26" s="10" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="17" t="s">
         <v>4031</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>4014</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="D27" s="12">
+      <c r="B27" s="11"/>
+      <c r="D27" s="16">
         <v>104</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="I27" s="10" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="I27" s="17" t="s">
         <v>4031</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>4015</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="D28" s="12">
+      <c r="B28" s="11"/>
+      <c r="D28" s="16">
         <v>104</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="I28" s="10" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="I28" s="17" t="s">
         <v>4031</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>4016</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="D29" s="12">
+      <c r="B29" s="11"/>
+      <c r="D29" s="16">
         <v>1</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="I29" s="10" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="17" t="s">
         <v>4032</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>4017</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="D30" s="12">
+      <c r="B30" s="11"/>
+      <c r="D30" s="16">
         <v>104</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="I30" s="10" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="I30" s="17" t="s">
         <v>4032</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>4018</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="D31" s="12">
+      <c r="B31" s="11"/>
+      <c r="D31" s="16">
         <v>104</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="I31" s="10" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="I31" s="17" t="s">
         <v>4032</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>4019</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="D32" s="12">
+      <c r="B32" s="11"/>
+      <c r="D32" s="16">
         <v>1</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="I32" s="10" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>4020</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="D33" s="12">
+      <c r="B33" s="11"/>
+      <c r="D33" s="16">
         <v>104</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="I33" s="10" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="I33" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>4021</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="D34" s="12">
+      <c r="B34" s="11"/>
+      <c r="D34" s="16">
         <v>104</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="I34" s="10" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="I34" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>4022</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="D35" s="12">
+      <c r="B35" s="11"/>
+      <c r="D35" s="16">
         <v>1</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="I35" s="10" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="I35" s="17" t="s">
         <v>4034</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>4023</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="D36" s="12">
+      <c r="B36" s="11"/>
+      <c r="D36" s="16">
         <v>104</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="I36" s="10" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="I36" s="17" t="s">
         <v>4034</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>4024</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="D37" s="12">
+      <c r="B37" s="11"/>
+      <c r="D37" s="16">
         <v>104</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="I37" s="10" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="I37" s="17" t="s">
         <v>4034</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
@@ -13999,54 +14097,32 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{1DAA4FBB-A531-48A1-A0D5-BAAED116EA13}"/>
@@ -14056,6 +14132,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5B9D8F-F2E0-4A91-9F70-4FE730863F64}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DBC9D9-FFEE-412D-BBD0-0C4D8B76BE72}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -16784,7 +16909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8670E3-A337-4011-8300-0B1F5261CDE5}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -19513,7 +19638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF3F857-04B8-482C-AFCB-F693D2866DC1}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -19562,7 +19687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058A94F4-D281-414B-BBE5-156981B4A61B}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -22291,7 +22416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25971A5-D4D1-4CF3-A99E-DD6B9E36EB4E}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -25020,7 +25145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEDE537-5E0B-4CEC-8D08-9476CDE0E44C}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -25071,7 +25196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1195DFD-90A3-49F9-9288-2D6092647A35}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -27800,7 +27925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95595288-FEEC-4BC8-B2AC-1DEB45D58657}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -30529,7 +30654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559AB765-8150-451E-8BD5-F5934EDEFE51}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -30580,7 +30705,1504 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685F9F9A-ADF6-41B3-809A-AD6C62009CC5}">
+  <dimension ref="A1:S93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>3996</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3" t="s">
+        <v>4042</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>4039</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4112</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="H5" s="19" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6" t="s">
+        <v>4046</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="20" t="s">
+        <v>3999</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="9" t="s">
+        <v>4047</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="9" t="s">
+        <v>4048</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9" t="s">
+        <v>4049</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="H11" s="20" t="s">
+        <v>4000</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>4050</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>4051</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>4052</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="H15" s="19" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6" t="s">
+        <v>4056</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="20" t="s">
+        <v>4002</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9" t="s">
+        <v>4057</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9" t="s">
+        <v>4058</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9" t="s">
+        <v>4059</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="20" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9" t="s">
+        <v>4060</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9" t="s">
+        <v>4061</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9" t="s">
+        <v>4062</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="H25" s="19" t="s">
+        <v>4004</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="6" t="s">
+        <v>4063</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="H27" s="20" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9" t="s">
+        <v>4064</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9" t="s">
+        <v>4065</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9" t="s">
+        <v>4066</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="H31" s="20" t="s">
+        <v>4006</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9" t="s">
+        <v>4067</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9" t="s">
+        <v>4068</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9" t="s">
+        <v>4069</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="H35" s="19" t="s">
+        <v>4007</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="6" t="s">
+        <v>4070</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="H37" s="20" t="s">
+        <v>4008</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9" t="s">
+        <v>4073</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9" t="s">
+        <v>4074</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9" t="s">
+        <v>4075</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="H41" s="20" t="s">
+        <v>4009</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9" t="s">
+        <v>4076</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9" t="s">
+        <v>4077</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="9" t="s">
+        <v>4078</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="H45" s="19" t="s">
+        <v>4010</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="H47" s="20" t="s">
+        <v>4011</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="9" t="s">
+        <v>4079</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="9" t="s">
+        <v>4080</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="9" t="s">
+        <v>4081</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="H51" s="20" t="s">
+        <v>4012</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="9" t="s">
+        <v>4082</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="9" t="s">
+        <v>4083</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="9" t="s">
+        <v>4084</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="H55" s="19" t="s">
+        <v>4013</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="6" t="s">
+        <v>4072</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="H57" s="20" t="s">
+        <v>4014</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="9" t="s">
+        <v>4085</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="9" t="s">
+        <v>4086</v>
+      </c>
+      <c r="S58" s="8" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="9" t="s">
+        <v>4087</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="H61" s="20" t="s">
+        <v>4015</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="9" t="s">
+        <v>4088</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="9" t="s">
+        <v>4089</v>
+      </c>
+      <c r="S62" s="8" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="9" t="s">
+        <v>4090</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="H65" s="19" t="s">
+        <v>4016</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="6" t="s">
+        <v>4091</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="H67" s="20" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="9" t="s">
+        <v>4092</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="9" t="s">
+        <v>4093</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="9" t="s">
+        <v>4094</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="H71" s="20" t="s">
+        <v>4018</v>
+      </c>
+      <c r="I71" s="20"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="9" t="s">
+        <v>4095</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="9" t="s">
+        <v>4096</v>
+      </c>
+      <c r="S72" s="8" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="9" t="s">
+        <v>4097</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="H75" s="19" t="s">
+        <v>4019</v>
+      </c>
+      <c r="I75" s="19"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="6" t="s">
+        <v>4104</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="H77" s="20" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I77" s="20"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="9" t="s">
+        <v>4101</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S77" s="8" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="9" t="s">
+        <v>4102</v>
+      </c>
+      <c r="S78" s="8" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="9" t="s">
+        <v>4103</v>
+      </c>
+      <c r="S79" s="8" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="H81" s="20" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I81" s="20"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="9" t="s">
+        <v>4098</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="9" t="s">
+        <v>4099</v>
+      </c>
+      <c r="S82" s="8" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="9" t="s">
+        <v>4100</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="H85" s="19" t="s">
+        <v>4022</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="6" t="s">
+        <v>4105</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="H87" s="20" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I87" s="20"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="9" t="s">
+        <v>4106</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="9" t="s">
+        <v>4107</v>
+      </c>
+      <c r="S88" s="8" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="9" t="s">
+        <v>4108</v>
+      </c>
+      <c r="S89" s="8" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="H91" s="20" t="s">
+        <v>4024</v>
+      </c>
+      <c r="I91" s="20"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="9" t="s">
+        <v>4109</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>4040</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>4041</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K92" s="9" t="s">
+        <v>4110</v>
+      </c>
+      <c r="S92" s="8" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K93" s="9" t="s">
+        <v>4111</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CBE760-A82D-4851-A067-42482F3C1276}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -33309,1503 +34931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685F9F9A-ADF6-41B3-809A-AD6C62009CC5}">
-  <dimension ref="A1:S93"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K93" activeCellId="62" sqref="K5 K7 K8 K9 K11 K12 K13 K15 K17 K18 K19 K21 K22 K23 K25 K27 K28 K29 K31 K32 K33 K35 K37 K38 K39 K41 K42 K43 K45 K47 K48 K49 K51 K52 K53 K55 K57 K58 K59 K61 K62 K63 K65 K67 K68 K69 K71 K72 K73 K75 K77 K78 K79 K81 K82 K83 K85 K87 K88 K89 K91 K92 K93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>4037</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
-        <v>4038</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="22" t="s">
-        <v>3996</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
-        <v>4042</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>4039</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4112</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>4113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="H5" s="21" t="s">
-        <v>3998</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="6" t="s">
-        <v>4046</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="H7" s="20" t="s">
-        <v>3999</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="9" t="s">
-        <v>4047</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9" t="s">
-        <v>4048</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="9" t="s">
-        <v>4049</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>4000</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9" t="s">
-        <v>4050</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9" t="s">
-        <v>4051</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9" t="s">
-        <v>4052</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="21" t="s">
-        <v>4001</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6" t="s">
-        <v>4056</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="H17" s="20" t="s">
-        <v>4002</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="9" t="s">
-        <v>4057</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9" t="s">
-        <v>4058</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>4115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9" t="s">
-        <v>4059</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>4116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="H21" s="20" t="s">
-        <v>4003</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9" t="s">
-        <v>4060</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>4117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9" t="s">
-        <v>4061</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>4118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9" t="s">
-        <v>4062</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="21" t="s">
-        <v>4004</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="6" t="s">
-        <v>4063</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="H27" s="20" t="s">
-        <v>4005</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="9" t="s">
-        <v>4064</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>4120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9" t="s">
-        <v>4065</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>4121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="9" t="s">
-        <v>4066</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>4122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="H31" s="20" t="s">
-        <v>4006</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="9" t="s">
-        <v>4067</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9" t="s">
-        <v>4068</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>4124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9" t="s">
-        <v>4069</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="H35" s="21" t="s">
-        <v>4007</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="6" t="s">
-        <v>4070</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="20" t="s">
-        <v>4008</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="9" t="s">
-        <v>4073</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>4126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="9" t="s">
-        <v>4074</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="9" t="s">
-        <v>4075</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="H41" s="20" t="s">
-        <v>4009</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="9" t="s">
-        <v>4076</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="9" t="s">
-        <v>4077</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="9" t="s">
-        <v>4078</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="H45" s="21" t="s">
-        <v>4010</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="6" t="s">
-        <v>4071</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="H47" s="20" t="s">
-        <v>4011</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="9" t="s">
-        <v>4079</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="9" t="s">
-        <v>4080</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>4133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="9" t="s">
-        <v>4081</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="H51" s="20" t="s">
-        <v>4012</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="9" t="s">
-        <v>4082</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="9" t="s">
-        <v>4083</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="9" t="s">
-        <v>4084</v>
-      </c>
-      <c r="S53" s="8" t="s">
-        <v>4137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="H55" s="21" t="s">
-        <v>4013</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="6" t="s">
-        <v>4072</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="H57" s="20" t="s">
-        <v>4014</v>
-      </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="9" t="s">
-        <v>4085</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S57" s="8" t="s">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="9" t="s">
-        <v>4086</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="9" t="s">
-        <v>4087</v>
-      </c>
-      <c r="S59" s="8" t="s">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="H61" s="20" t="s">
-        <v>4015</v>
-      </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="9" t="s">
-        <v>4088</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S61" s="8" t="s">
-        <v>4141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="9" t="s">
-        <v>4089</v>
-      </c>
-      <c r="S62" s="8" t="s">
-        <v>4142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="9" t="s">
-        <v>4090</v>
-      </c>
-      <c r="S63" s="8" t="s">
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="H65" s="21" t="s">
-        <v>4016</v>
-      </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="6" t="s">
-        <v>4091</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q65" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="H67" s="20" t="s">
-        <v>4017</v>
-      </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="9" t="s">
-        <v>4092</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S67" s="8" t="s">
-        <v>4144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="9" t="s">
-        <v>4093</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>4145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="9" t="s">
-        <v>4094</v>
-      </c>
-      <c r="S69" s="8" t="s">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="H71" s="20" t="s">
-        <v>4018</v>
-      </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="9" t="s">
-        <v>4095</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S71" s="8" t="s">
-        <v>4147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="9" t="s">
-        <v>4096</v>
-      </c>
-      <c r="S72" s="8" t="s">
-        <v>4148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="9" t="s">
-        <v>4097</v>
-      </c>
-      <c r="S73" s="8" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="H75" s="21" t="s">
-        <v>4019</v>
-      </c>
-      <c r="I75" s="21"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="6" t="s">
-        <v>4104</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q75" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="H77" s="20" t="s">
-        <v>4020</v>
-      </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="9" t="s">
-        <v>4101</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S77" s="8" t="s">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="9" t="s">
-        <v>4102</v>
-      </c>
-      <c r="S78" s="8" t="s">
-        <v>4151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="9" t="s">
-        <v>4103</v>
-      </c>
-      <c r="S79" s="8" t="s">
-        <v>4152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="H81" s="20" t="s">
-        <v>4021</v>
-      </c>
-      <c r="I81" s="20"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="9" t="s">
-        <v>4098</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q81" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S81" s="8" t="s">
-        <v>4153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="9" t="s">
-        <v>4099</v>
-      </c>
-      <c r="S82" s="8" t="s">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="9" t="s">
-        <v>4100</v>
-      </c>
-      <c r="S83" s="8" t="s">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="H85" s="21" t="s">
-        <v>4022</v>
-      </c>
-      <c r="I85" s="21"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="6" t="s">
-        <v>4105</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O85" s="5" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q85" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="H87" s="20" t="s">
-        <v>4023</v>
-      </c>
-      <c r="I87" s="20"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="9" t="s">
-        <v>4106</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S87" s="8" t="s">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="9" t="s">
-        <v>4107</v>
-      </c>
-      <c r="S88" s="8" t="s">
-        <v>4157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="9" t="s">
-        <v>4108</v>
-      </c>
-      <c r="S89" s="8" t="s">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="H91" s="20" t="s">
-        <v>4024</v>
-      </c>
-      <c r="I91" s="20"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="9" t="s">
-        <v>4109</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>4040</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>4041</v>
-      </c>
-      <c r="Q91" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S91" s="8" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K92" s="9" t="s">
-        <v>4110</v>
-      </c>
-      <c r="S92" s="8" t="s">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K93" s="9" t="s">
-        <v>4111</v>
-      </c>
-      <c r="S93" s="8" t="s">
-        <v>4161</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A87:F87"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E94140-6ACD-44C6-92B8-80ED6F95B590}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -37534,7 +37660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA505A3-C8D7-49E7-8E06-B318E5A3EFE0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -37585,7 +37711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F416F4F2-EEFA-4631-816F-688F48EF1B46}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -40314,7 +40440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9381154-6CB5-4FB2-8E45-546B77935019}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -43043,7 +43169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300DA58-EBA8-4DCD-BB8D-020734B95261}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -43094,7 +43220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7EEED-944E-438A-924B-6C197F948AA3}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -45823,7 +45949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C66CF-9127-4B94-826D-81A4568F7397}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -48552,7 +48678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AD97F-622F-49BC-8DA5-F28996E9B05B}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -48603,7 +48729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7DE26D-4F2D-4B6A-8E20-250726EAB970}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -51332,7 +51458,494 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7F9ADC-D46C-4A37-A25E-24C18880B67E}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="9" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="9" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="9" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="9" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="9" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="9" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="9" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="9" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="9" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="9" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="9" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="9" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="9" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="9" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="9" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="9" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="9" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="9" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="9" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="9" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="9" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="9" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="9" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="9" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="9" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="9" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="9" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="9" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="9" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="9" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="9" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="9" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="9" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="9" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="9" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="9" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D622253B-6198-4265-BC6D-1F076B5C3541}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -54061,7 +54674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D20DF93-562E-4CC3-905F-9643F81ED193}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -54110,7 +54723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A527F730-9993-43EA-9E4B-9E1A15B44821}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -56840,7 +57453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848079B2-ADB5-4005-899C-06C19C25CA24}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -59569,7 +60182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5417E5-B60E-4AED-8712-2DFF5C2A617C}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -59618,7 +60231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE45E89-B49C-4F24-A15B-A751BCE12C87}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -62347,7 +62960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD9AB9-07F9-4D42-96FD-9DD5252EC5A4}">
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -65074,53 +65687,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5B9D8F-F2E0-4A91-9F70-4FE730863F64}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>